--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>5.389238596072654</v>
+        <v>5.515135932605308</v>
       </c>
       <c r="C3">
-        <v>3.054599347420139</v>
+        <v>2.741420124134053</v>
       </c>
       <c r="D3">
-        <v>-2.824221650093883</v>
+        <v>-2.764179109379705</v>
       </c>
       <c r="E3">
         <v>-3.872359107260159</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-3.872359107260159</v>
       </c>
-      <c r="BA3">
-        <v>-3.872359107260159</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>5.470485580825346</v>
+        <v>5.566598885960738</v>
       </c>
       <c r="C4">
-        <v>4.407010886243712</v>
+        <v>3.4712032095223</v>
       </c>
       <c r="D4">
-        <v>0.1474511514198529</v>
+        <v>-0.2596132895792413</v>
       </c>
       <c r="E4">
-        <v>0.6832201941375571</v>
+        <v>-1.796159642965267</v>
       </c>
       <c r="F4">
-        <v>4.063186607895775</v>
+        <v>3.38265053313096</v>
       </c>
       <c r="G4">
         <v>4.530477057343663</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>4.530477057343663</v>
       </c>
-      <c r="BA4">
-        <v>4.530477057343663</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>3.947551404682237</v>
-      </c>
       <c r="D5">
-        <v>0.07005197424565512</v>
+        <v>-0.06191106053077267</v>
       </c>
       <c r="E5">
-        <v>1.901301875092987</v>
+        <v>-1.072567702512639</v>
       </c>
       <c r="F5">
-        <v>2.543774380098984</v>
+        <v>1.421687849828523</v>
       </c>
       <c r="G5">
-        <v>6.198184853554634</v>
+        <v>3.372216600811506</v>
       </c>
       <c r="H5">
-        <v>6.404323597907235</v>
+        <v>5.813045170083808</v>
       </c>
       <c r="I5">
         <v>6.833902841285977</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>6.833902841285977</v>
       </c>
-      <c r="BA5">
-        <v>6.833902841285977</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.7365896847720599</v>
-      </c>
       <c r="F6">
-        <v>0.6496944236917823</v>
+        <v>1.047976847023846</v>
       </c>
       <c r="G6">
-        <v>6.913807842808928</v>
+        <v>1.316610894175119</v>
       </c>
       <c r="H6">
-        <v>6.114881375216519</v>
+        <v>2.371160938652705</v>
       </c>
       <c r="I6">
-        <v>6.977693666529272</v>
+        <v>5.794553957309168</v>
       </c>
       <c r="J6">
-        <v>4.379018979318605</v>
+        <v>4.597183386292891</v>
       </c>
       <c r="K6">
         <v>4.166536506645224</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>4.166536506645224</v>
       </c>
-      <c r="BA6">
-        <v>4.166536506645224</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>6.738285188065118</v>
-      </c>
       <c r="H7">
-        <v>6.533092268975182</v>
+        <v>2.253457754589228</v>
       </c>
       <c r="I7">
-        <v>7.659719129853571</v>
+        <v>5.18838101923762</v>
       </c>
       <c r="J7">
-        <v>5.501952563715573</v>
+        <v>6.213583554874536</v>
       </c>
       <c r="K7">
-        <v>4.580469755461802</v>
+        <v>4.453225076234824</v>
       </c>
       <c r="L7">
-        <v>2.313339498391165</v>
+        <v>2.113053977048707</v>
       </c>
       <c r="M7">
         <v>2.669880057548091</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>2.669880057548091</v>
       </c>
-      <c r="BA7">
-        <v>2.669880057548091</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>7.133439926480567</v>
-      </c>
       <c r="J8">
-        <v>5.481464220263832</v>
+        <v>6.4658713724427</v>
       </c>
       <c r="K8">
-        <v>5.267556398337714</v>
+        <v>5.226878449528161</v>
       </c>
       <c r="L8">
-        <v>4.808332530832859</v>
+        <v>3.80132608443593</v>
       </c>
       <c r="M8">
-        <v>5.800035788110924</v>
+        <v>4.443665867214519</v>
       </c>
       <c r="N8">
-        <v>5.973609545413994</v>
+        <v>5.262295419893648</v>
       </c>
       <c r="O8">
         <v>5.50293301232252</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>5.50293301232252</v>
       </c>
-      <c r="BA8">
-        <v>5.50293301232252</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>4.606433299577617</v>
-      </c>
       <c r="L9">
-        <v>3.657761812230675</v>
+        <v>3.947168334316919</v>
       </c>
       <c r="M9">
-        <v>6.163999103220807</v>
+        <v>3.983760133672121</v>
       </c>
       <c r="N9">
-        <v>6.688135628369141</v>
+        <v>3.911207409579687</v>
       </c>
       <c r="O9">
-        <v>6.575740619085968</v>
+        <v>4.93942156312468</v>
       </c>
       <c r="P9">
-        <v>5.107401516566701</v>
+        <v>4.78031692483154</v>
       </c>
       <c r="Q9">
         <v>4.829481320500406</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>4.829481320500406</v>
       </c>
-      <c r="BA9">
-        <v>4.829481320500406</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>4.845323305138316</v>
-      </c>
       <c r="N10">
-        <v>5.085855218223623</v>
+        <v>3.718405228598609</v>
       </c>
       <c r="O10">
-        <v>6.822364971283368</v>
+        <v>4.397175883931581</v>
       </c>
       <c r="P10">
-        <v>6.159515083027522</v>
+        <v>4.481753591536197</v>
       </c>
       <c r="Q10">
-        <v>5.637047132432382</v>
+        <v>5.304093839766777</v>
       </c>
       <c r="R10">
-        <v>5.448849700771508</v>
+        <v>5.386945580119185</v>
       </c>
       <c r="S10">
         <v>5.100281927437122</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>5.100281927437122</v>
       </c>
-      <c r="BA10">
-        <v>5.100281927437122</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>6.27896803086907</v>
-      </c>
       <c r="P11">
-        <v>5.540054790789295</v>
+        <v>4.481643758166953</v>
       </c>
       <c r="Q11">
-        <v>5.393833248321278</v>
+        <v>5.391718764442932</v>
       </c>
       <c r="R11">
-        <v>5.248309031308951</v>
+        <v>5.291601650505706</v>
       </c>
       <c r="S11">
-        <v>4.889825623401545</v>
+        <v>4.773858406282372</v>
       </c>
       <c r="T11">
-        <v>4.890921874850185</v>
+        <v>4.884223728030879</v>
       </c>
       <c r="U11">
         <v>5.161358932333737</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>5.161358932333737</v>
       </c>
-      <c r="BA11">
-        <v>5.161358932333737</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>5.334845443596392</v>
-      </c>
       <c r="R12">
-        <v>4.960454519867263</v>
+        <v>5.256062028567232</v>
       </c>
       <c r="S12">
-        <v>4.951422238572278</v>
+        <v>4.867860541745572</v>
       </c>
       <c r="T12">
-        <v>4.906051836781322</v>
+        <v>4.848884192354119</v>
       </c>
       <c r="U12">
-        <v>5.261684900217256</v>
+        <v>5.448823958443616</v>
       </c>
       <c r="V12">
-        <v>5.938036641950228</v>
+        <v>6.111775080355519</v>
       </c>
       <c r="W12">
-        <v>5.910776580333765</v>
+        <v>6.072005530313129</v>
       </c>
       <c r="X12">
-        <v>5.903240711112856</v>
+        <v>5.969015988310433</v>
       </c>
       <c r="Y12">
         <v>5.902681694119694</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>5.902681694119694</v>
       </c>
-      <c r="BA12">
-        <v>5.902681694119694</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>5.305024190413787</v>
-      </c>
-      <c r="S13">
-        <v>5.056710712291457</v>
-      </c>
       <c r="T13">
-        <v>4.921593768007892</v>
+        <v>4.819877891111335</v>
       </c>
       <c r="U13">
-        <v>4.951890566631345</v>
+        <v>5.22223210260726</v>
       </c>
       <c r="V13">
-        <v>4.997363337233529</v>
+        <v>5.5540247491221</v>
       </c>
       <c r="W13">
-        <v>4.737510621186813</v>
+        <v>5.47980442665561</v>
       </c>
       <c r="X13">
-        <v>4.751894620017949</v>
+        <v>5.321568540215016</v>
       </c>
       <c r="Y13">
-        <v>4.808207293463118</v>
+        <v>5.03659417252571</v>
       </c>
       <c r="Z13">
-        <v>3.844372712434674</v>
+        <v>3.94180168325462</v>
       </c>
       <c r="AA13">
-        <v>4.754217134270533</v>
+        <v>4.927928448556984</v>
       </c>
       <c r="AB13">
-        <v>3.937486382457855</v>
+        <v>3.961704997901161</v>
       </c>
       <c r="AC13">
         <v>3.884502719230132</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>3.884502719230132</v>
       </c>
-      <c r="BA13">
-        <v>3.884502719230132</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>4.978198791563582</v>
-      </c>
-      <c r="U14">
-        <v>5.206559791688425</v>
-      </c>
-      <c r="V14">
-        <v>5.082157397167197</v>
-      </c>
       <c r="W14">
-        <v>4.857241229754283</v>
+        <v>5.484025951319293</v>
       </c>
       <c r="X14">
-        <v>4.975002966049069</v>
+        <v>5.40641359612255</v>
       </c>
       <c r="Y14">
-        <v>4.223922367478816</v>
+        <v>5.259836672320484</v>
       </c>
       <c r="Z14">
-        <v>4.236953953506029</v>
+        <v>5.077291536394846</v>
       </c>
       <c r="AA14">
-        <v>4.502492156165561</v>
+        <v>5.802765867180804</v>
       </c>
       <c r="AB14">
-        <v>3.718398465425499</v>
+        <v>4.342221082693465</v>
       </c>
       <c r="AC14">
-        <v>3.575675711572068</v>
+        <v>4.009670676786059</v>
       </c>
       <c r="AD14">
-        <v>3.666264665660224</v>
+        <v>3.818894565497888</v>
       </c>
       <c r="AE14">
-        <v>2.026619269503116</v>
+        <v>2.502519143054571</v>
       </c>
       <c r="AF14">
-        <v>-4.007669511185885</v>
+        <v>-3.840397826549158</v>
       </c>
       <c r="AG14">
         <v>-3.840397826549158</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-3.840397826549158</v>
       </c>
-      <c r="BA14">
-        <v>-3.840397826549158</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>5.283539841036777</v>
-      </c>
-      <c r="W15">
-        <v>5.105459260474365</v>
-      </c>
-      <c r="X15">
-        <v>5.148846029546927</v>
-      </c>
-      <c r="Y15">
-        <v>3.872285056153402</v>
-      </c>
-      <c r="Z15">
-        <v>3.738351979156085</v>
-      </c>
       <c r="AA15">
-        <v>3.903537072101271</v>
+        <v>5.537148498057909</v>
       </c>
       <c r="AB15">
-        <v>3.677143798731608</v>
+        <v>4.858483928622914</v>
       </c>
       <c r="AC15">
-        <v>3.747149913471337</v>
+        <v>4.692141525353577</v>
       </c>
       <c r="AD15">
-        <v>3.865624738500362</v>
+        <v>4.451460339319802</v>
       </c>
       <c r="AE15">
-        <v>4.521126324859415</v>
+        <v>3.379658261193086</v>
       </c>
       <c r="AF15">
-        <v>4.894792862113562</v>
+        <v>-2.491095770678031</v>
       </c>
       <c r="AG15">
-        <v>4.713777840658673</v>
+        <v>-0.236010050592228</v>
       </c>
       <c r="AH15">
-        <v>2.375052641466335</v>
+        <v>-1.162988086281536</v>
       </c>
       <c r="AI15">
-        <v>1.212304829517796</v>
+        <v>0.3986977119751156</v>
       </c>
       <c r="AJ15">
-        <v>1.488248808663228</v>
+        <v>0.4839811651348835</v>
       </c>
       <c r="AK15">
         <v>0.4839811651348835</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>0.4839811651348835</v>
       </c>
-      <c r="BA15">
-        <v>0.4839811651348835</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>4.261217666073414</v>
-      </c>
-      <c r="Z16">
-        <v>3.885795910011813</v>
-      </c>
-      <c r="AA16">
-        <v>4.354292726652753</v>
-      </c>
-      <c r="AB16">
-        <v>3.723682586658739</v>
-      </c>
-      <c r="AC16">
-        <v>3.696168866098293</v>
-      </c>
-      <c r="AD16">
-        <v>3.761310097738613</v>
-      </c>
       <c r="AE16">
-        <v>3.653190217929092</v>
+        <v>3.725004516987496</v>
       </c>
       <c r="AF16">
-        <v>3.965691623940604</v>
+        <v>-0.1871946888853837</v>
       </c>
       <c r="AG16">
-        <v>6.137296471727405</v>
+        <v>0.1963989771473607</v>
       </c>
       <c r="AH16">
-        <v>8.664720953958117</v>
+        <v>-0.8351862827690737</v>
       </c>
       <c r="AI16">
-        <v>9.298746984139195</v>
+        <v>1.500453746466346</v>
       </c>
       <c r="AJ16">
-        <v>8.604279583650509</v>
+        <v>1.25489130894445</v>
       </c>
       <c r="AK16">
-        <v>6.8272105562736</v>
+        <v>2.177145583294293</v>
       </c>
       <c r="AL16">
-        <v>4.93373128372403</v>
+        <v>0.9587999512773893</v>
       </c>
       <c r="AM16">
-        <v>2.236851357693292</v>
+        <v>1.97557360987699</v>
       </c>
       <c r="AN16">
-        <v>2.395586567457175</v>
+        <v>2.06342951900429</v>
       </c>
       <c r="AO16">
         <v>2.06342951900429</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>2.06342951900429</v>
       </c>
-      <c r="BA16">
-        <v>2.06342951900429</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>3.774234235836005</v>
-      </c>
-      <c r="AD17">
-        <v>3.869629261092533</v>
-      </c>
-      <c r="AE17">
-        <v>3.507598123572997</v>
-      </c>
-      <c r="AF17">
-        <v>2.104945506187139</v>
-      </c>
-      <c r="AG17">
-        <v>6.043343140230384</v>
-      </c>
       <c r="AH17">
-        <v>6.222015662936031</v>
+        <v>-0.6271380860239262</v>
       </c>
       <c r="AI17">
-        <v>6.251925291552451</v>
+        <v>0.4027662762101869</v>
       </c>
       <c r="AJ17">
-        <v>6.154719083390847</v>
+        <v>-0.3850568868524862</v>
       </c>
       <c r="AK17">
-        <v>4.192956011430327</v>
+        <v>0.0360848986632023</v>
       </c>
       <c r="AL17">
-        <v>7.069303118256975</v>
+        <v>-1.150174078429844</v>
       </c>
       <c r="AM17">
-        <v>3.947999343926734</v>
+        <v>0.05919149746531627</v>
       </c>
       <c r="AN17">
-        <v>3.99549438235165</v>
+        <v>0.47378583592943</v>
       </c>
       <c r="AO17">
-        <v>1.963784470256713</v>
+        <v>0.3896432785800652</v>
       </c>
       <c r="AP17">
-        <v>-0.2251249147054546</v>
+        <v>-2.242084520390608</v>
       </c>
       <c r="AQ17">
-        <v>-1.499586570365474</v>
+        <v>-2.311523918755531</v>
       </c>
       <c r="AR17">
-        <v>-2.158581765635204</v>
+        <v>-2.156362896191677</v>
       </c>
       <c r="AS17">
         <v>-2.156362896191677</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-2.156362896191677</v>
       </c>
-      <c r="BA17">
-        <v>-2.156362896191677</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>9.719388975878251</v>
-      </c>
-      <c r="AH18">
-        <v>9.820688294036728</v>
-      </c>
-      <c r="AI18">
-        <v>9.639896350247067</v>
-      </c>
-      <c r="AJ18">
-        <v>9.464053348594925</v>
-      </c>
-      <c r="AK18">
-        <v>4.111529963596006</v>
-      </c>
       <c r="AL18">
-        <v>4.319697402355027</v>
+        <v>-0.8630989168629921</v>
       </c>
       <c r="AM18">
-        <v>3.382296511624983</v>
+        <v>-0.5798629304026526</v>
       </c>
       <c r="AN18">
-        <v>3.405743272706685</v>
+        <v>-0.3296074516580316</v>
       </c>
       <c r="AO18">
-        <v>4.940182765992751</v>
+        <v>4.745563085952331</v>
       </c>
       <c r="AP18">
-        <v>4.053451482406034</v>
+        <v>0.4860776313184267</v>
       </c>
       <c r="AQ18">
-        <v>4.436084942495122</v>
+        <v>-0.1671238976421296</v>
       </c>
       <c r="AR18">
-        <v>3.750193614401542</v>
+        <v>0.7251362782769055</v>
       </c>
       <c r="AS18">
-        <v>2.091147464428778</v>
+        <v>-1.437335768580206</v>
       </c>
       <c r="AT18">
-        <v>0.4555597068876871</v>
+        <v>-1.379035600217182</v>
       </c>
       <c r="AU18">
-        <v>-0.6569152576540782</v>
+        <v>-0.8195740704359578</v>
       </c>
       <c r="AV18">
-        <v>-0.4507701807948239</v>
+        <v>-0.8205034771073372</v>
       </c>
       <c r="AW18">
         <v>-0.8205034771073372</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>-0.8205034771073372</v>
       </c>
-      <c r="BA18">
-        <v>-0.8205034771073372</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>4.880805342539829</v>
-      </c>
-      <c r="AL19">
-        <v>5.302827780278307</v>
-      </c>
-      <c r="AM19">
-        <v>2.959385475428489</v>
-      </c>
-      <c r="AN19">
-        <v>3.03976304481135</v>
-      </c>
-      <c r="AO19">
-        <v>4.063977774244854</v>
-      </c>
       <c r="AP19">
-        <v>2.971138271767271</v>
+        <v>0.9066518070286467</v>
       </c>
       <c r="AQ19">
-        <v>3.154858972140695</v>
+        <v>0.1286052726408693</v>
       </c>
       <c r="AR19">
-        <v>3.504461451096641</v>
+        <v>0.7930386201910888</v>
       </c>
       <c r="AS19">
-        <v>3.693499302747405</v>
+        <v>-0.8900729308547461</v>
       </c>
       <c r="AT19">
-        <v>4.469897336389028</v>
+        <v>-1.053916016632561</v>
       </c>
       <c r="AU19">
-        <v>3.809034848488446</v>
+        <v>-0.4351858173977874</v>
       </c>
       <c r="AV19">
-        <v>3.710266040086396</v>
+        <v>-0.1639718104104904</v>
       </c>
       <c r="AW19">
-        <v>1.76827631783818</v>
+        <v>0.07297157746815053</v>
       </c>
       <c r="AX19">
-        <v>1.268511207459633</v>
+        <v>0.2518138058242414</v>
       </c>
       <c r="AY19">
-        <v>0.468579753809073</v>
+        <v>0.4857399523052974</v>
       </c>
       <c r="AZ19">
-        <v>0.5756371110930525</v>
-      </c>
-      <c r="BA19">
         <v>0.5750555200350504</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>3.639495199649878</v>
-      </c>
-      <c r="AP20">
-        <v>2.191650393118794</v>
-      </c>
-      <c r="AQ20">
-        <v>1.938399330375407</v>
-      </c>
-      <c r="AR20">
-        <v>1.587474651128806</v>
-      </c>
-      <c r="AS20">
-        <v>3.711663895151651</v>
-      </c>
       <c r="AT20">
-        <v>3.863318473529231</v>
+        <v>-1.099759890829544</v>
       </c>
       <c r="AU20">
-        <v>3.592855230943415</v>
+        <v>-1.022802765586617</v>
       </c>
       <c r="AV20">
-        <v>2.018432786834845</v>
+        <v>-0.5861676960653317</v>
       </c>
       <c r="AW20">
-        <v>2.772948416451326</v>
+        <v>-1.165535347616076</v>
       </c>
       <c r="AX20">
-        <v>2.265109330203541</v>
+        <v>-1.185914719184011</v>
       </c>
       <c r="AY20">
-        <v>0.116859699208427</v>
+        <v>-0.3387208997876479</v>
       </c>
       <c r="AZ20">
-        <v>0.5339625944420057</v>
-      </c>
-      <c r="BA20">
-        <v>0.5328865284840001</v>
+        <v>0.3466793681147884</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>3.458672423898324</v>
-      </c>
-      <c r="AT21">
-        <v>3.208101648134476</v>
-      </c>
-      <c r="AU21">
-        <v>2.490604344616698</v>
-      </c>
-      <c r="AV21">
-        <v>1.985467837015986</v>
-      </c>
-      <c r="AW21">
-        <v>2.410248265376902</v>
-      </c>
       <c r="AX21">
-        <v>1.928392480176266</v>
+        <v>-1.256374469693167</v>
       </c>
       <c r="AY21">
-        <v>0.2660063534495105</v>
+        <v>-0.4360715507411128</v>
       </c>
       <c r="AZ21">
-        <v>0.4819328619786623</v>
-      </c>
-      <c r="BA21">
-        <v>0.6937874061174965</v>
+        <v>0.2338620606656017</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>2.253761856715686</v>
-      </c>
-      <c r="AX22">
-        <v>1.73604101536815</v>
-      </c>
-      <c r="AY22">
-        <v>0.1346626542657825</v>
-      </c>
-      <c r="AZ22">
-        <v>0.3918616290032428</v>
-      </c>
-      <c r="BA22">
-        <v>0.9816642598369008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.7841143197391487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-0.8225206269755425</v>
       </c>
       <c r="AG17">
-        <v>-7.578477024949737</v>
+        <v>-9.509392583043452</v>
       </c>
       <c r="AH17">
         <v>-7.260793671746435</v>
@@ -2451,19 +2451,19 @@
         <v>1.159653508089242</v>
       </c>
       <c r="AG18">
-        <v>-5.048497756254311</v>
+        <v>-13.27335016738094</v>
       </c>
       <c r="AH18">
-        <v>-1.387795042833839</v>
+        <v>-3.928463662434578</v>
       </c>
       <c r="AI18">
-        <v>-0.4318290737559183</v>
+        <v>0.2776641654053114</v>
       </c>
       <c r="AJ18">
-        <v>4.409066926520455</v>
+        <v>2.848657652839015</v>
       </c>
       <c r="AK18">
-        <v>4.379227219808146</v>
+        <v>4.308268478799282</v>
       </c>
       <c r="AL18">
         <v>4.097586525396268</v>
@@ -2522,31 +2522,31 @@
         <v>1.674576384397275</v>
       </c>
       <c r="AG19">
-        <v>-2.24419892838158</v>
+        <v>-5.481722736979422</v>
       </c>
       <c r="AH19">
-        <v>-1.554245730572124</v>
+        <v>-1.748054633281881</v>
       </c>
       <c r="AI19">
-        <v>-1.967992356539539</v>
+        <v>-1.005130103122109</v>
       </c>
       <c r="AJ19">
-        <v>3.034999751677669</v>
+        <v>0.8699781697852682</v>
       </c>
       <c r="AK19">
-        <v>2.570052815033752</v>
+        <v>2.613948320685866</v>
       </c>
       <c r="AL19">
-        <v>2.450242954096926</v>
+        <v>1.615192986662839</v>
       </c>
       <c r="AM19">
-        <v>6.557154773664364</v>
+        <v>8.215174201986342</v>
       </c>
       <c r="AN19">
-        <v>8.064077385547574</v>
+        <v>7.397941265640773</v>
       </c>
       <c r="AO19">
-        <v>7.397318165265498</v>
+        <v>7.536168948934541</v>
       </c>
       <c r="AP19">
         <v>7.824284864703746</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-1.837500358416388</v>
-      </c>
       <c r="AJ20">
-        <v>0.8322497933246575</v>
+        <v>-0.06009339947355974</v>
       </c>
       <c r="AK20">
-        <v>0.2937804275273681</v>
+        <v>0.6805972061374455</v>
       </c>
       <c r="AL20">
-        <v>0.2892803740596861</v>
+        <v>-0.09269483433728132</v>
       </c>
       <c r="AM20">
-        <v>1.465110550383386</v>
+        <v>2.364846754700189</v>
       </c>
       <c r="AN20">
-        <v>3.690055931494096</v>
+        <v>2.551560717335288</v>
       </c>
       <c r="AO20">
-        <v>3.192017772210276</v>
+        <v>3.242110390729325</v>
       </c>
       <c r="AP20">
-        <v>4.834990656989402</v>
+        <v>5.766948420758222</v>
       </c>
       <c r="AQ20">
-        <v>1.287151040638124</v>
+        <v>5.214149886888819</v>
       </c>
       <c r="AR20">
-        <v>0.3551698673347259</v>
+        <v>1.134134753233695</v>
       </c>
       <c r="AS20">
-        <v>-0.3046246622258053</v>
+        <v>-0.1750848605784672</v>
       </c>
       <c r="AT20">
         <v>-1.24502235313334</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.934581974247473</v>
-      </c>
       <c r="AN21">
-        <v>3.153014300840939</v>
+        <v>2.472057648734927</v>
       </c>
       <c r="AO21">
-        <v>3.418289666420637</v>
+        <v>2.87122766495167</v>
       </c>
       <c r="AP21">
-        <v>10.65643523580795</v>
+        <v>4.378000055373343</v>
       </c>
       <c r="AQ21">
-        <v>5.402455143891816</v>
+        <v>10.69860835370518</v>
       </c>
       <c r="AR21">
-        <v>4.038118345571751</v>
+        <v>5.807910951802375</v>
       </c>
       <c r="AS21">
-        <v>2.185848087053199</v>
+        <v>3.547807771059497</v>
       </c>
       <c r="AT21">
-        <v>-2.488220481262082</v>
+        <v>-0.0390586059409781</v>
       </c>
       <c r="AU21">
-        <v>-3.197915208378399</v>
+        <v>-3.06764679961371</v>
       </c>
       <c r="AV21">
-        <v>-2.267078452724969</v>
+        <v>-2.44753364817466</v>
       </c>
       <c r="AW21">
-        <v>-2.567041707495976</v>
+        <v>-2.520879465820713</v>
       </c>
       <c r="AX21">
         <v>-1.735114423676209</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>6.170333149998974</v>
-      </c>
       <c r="AR22">
-        <v>5.159765074238365</v>
+        <v>6.454702807398216</v>
       </c>
       <c r="AS22">
-        <v>3.301972839054867</v>
+        <v>4.853094283145776</v>
       </c>
       <c r="AT22">
-        <v>0.7246173345792917</v>
+        <v>2.278723886255629</v>
       </c>
       <c r="AU22">
-        <v>0.5664860188349996</v>
+        <v>0.4897355149953597</v>
       </c>
       <c r="AV22">
-        <v>0.5378929214800987</v>
+        <v>1.338948536686968</v>
       </c>
       <c r="AW22">
-        <v>-0.3140572462435154</v>
+        <v>-0.01136840354138968</v>
       </c>
       <c r="AX22">
-        <v>1.056286187957367</v>
+        <v>1.087576621789932</v>
       </c>
       <c r="AY22">
-        <v>1.602010908728335</v>
+        <v>1.760561567332619</v>
       </c>
       <c r="AZ22">
-        <v>1.326993065386817</v>
+        <v>1.038949519463639</v>
       </c>
       <c r="BA22">
-        <v>2.64031107104763</v>
+        <v>2.591610259448651</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.6288831755671298</v>
-      </c>
       <c r="AV23">
-        <v>-0.0458461614731176</v>
+        <v>1.26361301141773</v>
       </c>
       <c r="AW23">
-        <v>-0.5425635464998968</v>
+        <v>-0.2854776650141</v>
       </c>
       <c r="AX23">
-        <v>-0.6080318710397825</v>
+        <v>0.1781474575173858</v>
       </c>
       <c r="AY23">
-        <v>-1.246071640539481</v>
+        <v>-0.3110100908356617</v>
       </c>
       <c r="AZ23">
-        <v>-0.2087957186147071</v>
+        <v>-1.22086907471215</v>
       </c>
       <c r="BA23">
-        <v>1.890175284700679</v>
+        <v>1.402134409956268</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-1.320524988920735</v>
-      </c>
       <c r="AZ24">
-        <v>-0.6123399813015018</v>
+        <v>-1.582886598789712</v>
       </c>
       <c r="BA24">
-        <v>0.7811902715076702</v>
+        <v>0.2343859841315243</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>10.08874977017686</v>
+      </c>
+      <c r="C3">
+        <v>8.045645122021927</v>
+      </c>
+      <c r="D3">
+        <v>6.772115316529947</v>
+      </c>
+      <c r="E3">
+        <v>-5.232639093663827</v>
+      </c>
+      <c r="F3">
+        <v>-7.266312015249799</v>
+      </c>
+      <c r="G3">
+        <v>-7.392716344398065</v>
+      </c>
+      <c r="H3">
+        <v>-7.829486332896607</v>
+      </c>
+      <c r="I3">
+        <v>-7.964411665641935</v>
+      </c>
+      <c r="J3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="K3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="L3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="M3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="N3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="O3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="P3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Q3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="R3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="S3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="T3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="U3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="V3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="W3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="X3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Y3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Z3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AA3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AB3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AC3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AD3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AE3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AF3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AG3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AH3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AI3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AJ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AK3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AL3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AM3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AN3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AO3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AP3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AQ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AR3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AS3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AT3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AU3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AV3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AW3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AX3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AY3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AZ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="BA3">
+        <v>-7.864097658617908</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>7.226520411029047</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>6.680949307701334</v>
+        <v>7.631219201963479</v>
       </c>
       <c r="D4">
-        <v>7.264603558669824</v>
+        <v>6.088649320494954</v>
       </c>
       <c r="E4">
-        <v>7.264603558669824</v>
+        <v>-0.9943400519801915</v>
       </c>
       <c r="F4">
-        <v>7.095684514498224</v>
+        <v>-1.420242831007679</v>
       </c>
       <c r="G4">
-        <v>7.095684514498224</v>
+        <v>2.124540184802992</v>
       </c>
       <c r="H4">
-        <v>7.095684514498224</v>
+        <v>6.958243460951929</v>
       </c>
       <c r="I4">
-        <v>7.095684514498224</v>
+        <v>6.645187828014643</v>
       </c>
       <c r="J4">
-        <v>7.095684514498224</v>
+        <v>5.795450196953511</v>
       </c>
       <c r="K4">
-        <v>7.095684514498224</v>
+        <v>5.795450196953511</v>
       </c>
       <c r="L4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="M4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="N4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="O4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="P4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Q4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="R4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="S4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="T4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="U4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="V4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="W4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="X4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Y4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Z4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AA4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AB4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AC4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AD4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AE4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AF4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AG4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AH4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AI4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AJ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AK4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AL4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AM4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AN4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AO4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AP4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AQ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AR4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AS4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AT4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AU4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AV4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AW4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AX4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AY4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AZ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="BA4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>8.987952903094421</v>
-      </c>
-      <c r="C5">
-        <v>6.109216616889168</v>
-      </c>
-      <c r="D5">
-        <v>4.268860212333636</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>4.25289386958061</v>
+        <v>0.4323921962440913</v>
       </c>
       <c r="F5">
-        <v>4.368079871693031</v>
+        <v>-1.207899093489651</v>
       </c>
       <c r="G5">
-        <v>4.368079871693031</v>
+        <v>1.203634802640963</v>
       </c>
       <c r="H5">
-        <v>3.210190562558712</v>
+        <v>8.31992099499319</v>
       </c>
       <c r="I5">
-        <v>3.210190562558712</v>
+        <v>8.081020954067753</v>
       </c>
       <c r="J5">
-        <v>3.210190562558712</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="K5">
-        <v>3.210190562558712</v>
+        <v>9.856384149233444</v>
       </c>
       <c r="L5">
-        <v>3.210190562558712</v>
+        <v>9.359115278856267</v>
       </c>
       <c r="M5">
-        <v>3.210190562558712</v>
+        <v>9.359115278856267</v>
       </c>
       <c r="N5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="O5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="P5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Q5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="R5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="S5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="T5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="U5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="V5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="W5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="X5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Y5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Z5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AA5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AB5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AC5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AD5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AE5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AF5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AG5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AH5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AI5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AJ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AK5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AL5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AM5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AN5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AO5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AP5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AQ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AR5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AS5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AT5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AU5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AV5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AW5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AX5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AY5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AZ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="BA5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>10.08874977017686</v>
-      </c>
-      <c r="C6">
-        <v>8.045645122021906</v>
-      </c>
-      <c r="D6">
-        <v>6.77211531652997</v>
-      </c>
-      <c r="E6">
-        <v>-5.232639093663815</v>
-      </c>
-      <c r="F6">
-        <v>-7.266312015249776</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-7.392716344398053</v>
+        <v>-0.2660506991080447</v>
       </c>
       <c r="H6">
-        <v>-7.829486332896618</v>
+        <v>2.312681701660013</v>
       </c>
       <c r="I6">
-        <v>-7.964411665641913</v>
+        <v>2.257871268432821</v>
       </c>
       <c r="J6">
-        <v>-7.864097658617897</v>
+        <v>8.571528775834981</v>
       </c>
       <c r="K6">
-        <v>-7.864097658617897</v>
+        <v>4.489210662380971</v>
       </c>
       <c r="L6">
-        <v>-7.864097658617897</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="M6">
-        <v>-7.864097658617897</v>
+        <v>3.697114313724215</v>
       </c>
       <c r="N6">
-        <v>-7.864097658617897</v>
+        <v>3.260099947761641</v>
       </c>
       <c r="O6">
-        <v>-7.864097658617897</v>
+        <v>3.260099947761641</v>
       </c>
       <c r="P6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Q6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="R6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="S6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="T6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="U6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="V6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="W6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="X6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Y6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Z6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AA6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AB6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AC6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AD6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AE6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AF6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AG6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AH6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AI6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AJ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AK6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AL6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AM6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AN6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AO6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AP6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AQ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AR6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AS6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AT6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AU6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AV6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AW6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AX6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AY6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AZ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="BA6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>7.631219201963502</v>
-      </c>
-      <c r="D7">
-        <v>6.088649320494954</v>
-      </c>
-      <c r="E7">
-        <v>-0.9943400519801915</v>
-      </c>
-      <c r="F7">
-        <v>-1.420242831007679</v>
-      </c>
-      <c r="G7">
-        <v>2.12454018480297</v>
-      </c>
-      <c r="H7">
-        <v>6.958243460951929</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>6.64518782801462</v>
+        <v>2.017105273483999</v>
       </c>
       <c r="J7">
-        <v>5.795450196953511</v>
+        <v>7.643153176955964</v>
       </c>
       <c r="K7">
-        <v>5.795450196953511</v>
+        <v>7.472658273721078</v>
       </c>
       <c r="L7">
-        <v>5.172294413915957</v>
+        <v>5.745831525574463</v>
       </c>
       <c r="M7">
-        <v>5.172294413915957</v>
+        <v>-0.8752093743685241</v>
       </c>
       <c r="N7">
-        <v>5.172294413915957</v>
+        <v>0.3081076735359067</v>
       </c>
       <c r="O7">
-        <v>5.172294413915957</v>
+        <v>0.6837276428259154</v>
       </c>
       <c r="P7">
-        <v>5.172294413915957</v>
+        <v>1.966616993222026</v>
       </c>
       <c r="Q7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="R7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="S7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="T7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="U7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="V7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="W7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="X7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="Y7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="Z7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AA7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AB7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AC7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AD7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AE7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AF7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AG7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AH7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AI7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AJ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AK7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AL7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AM7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AN7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AO7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AP7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AQ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AR7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AS7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AT7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AU7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AV7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AW7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AX7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AY7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AZ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="BA7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>0.4323921962441135</v>
-      </c>
-      <c r="F8">
-        <v>-1.207899093489651</v>
-      </c>
-      <c r="G8">
-        <v>1.203634802640963</v>
-      </c>
-      <c r="H8">
-        <v>8.31992099499319</v>
-      </c>
-      <c r="I8">
-        <v>8.081020954067775</v>
-      </c>
-      <c r="J8">
-        <v>9.469137444079934</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>9.856384149233444</v>
+        <v>7.972052343427349</v>
       </c>
       <c r="L8">
-        <v>9.359115278856244</v>
+        <v>6.401079724737446</v>
       </c>
       <c r="M8">
-        <v>9.359115278856244</v>
+        <v>1.998870338019265</v>
       </c>
       <c r="N8">
-        <v>9.075100657941459</v>
+        <v>2.847379875994704</v>
       </c>
       <c r="O8">
-        <v>9.075100657941459</v>
+        <v>4.891728508251214</v>
       </c>
       <c r="P8">
-        <v>9.075100657941459</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="Q8">
-        <v>9.075100657941459</v>
+        <v>3.736958261562484</v>
       </c>
       <c r="R8">
-        <v>9.075100657941459</v>
+        <v>3.985650080172465</v>
       </c>
       <c r="S8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="T8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="U8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="V8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="W8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="X8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="Y8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="Z8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AA8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AB8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AC8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AD8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AE8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AF8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AG8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AH8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AI8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AJ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AK8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AL8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AM8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AN8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AO8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AP8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AQ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AR8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AS8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AT8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AU8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AV8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AW8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AX8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AY8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AZ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="BA8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-0.2660506991080558</v>
-      </c>
-      <c r="H9">
-        <v>2.312681701659969</v>
-      </c>
-      <c r="I9">
-        <v>2.257871268432821</v>
-      </c>
-      <c r="J9">
-        <v>8.571528775834981</v>
-      </c>
-      <c r="K9">
-        <v>4.489210662380949</v>
-      </c>
-      <c r="L9">
-        <v>3.358206407534947</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>3.697114313724237</v>
+        <v>2.713546379382215</v>
       </c>
       <c r="N9">
-        <v>3.260099947761663</v>
+        <v>2.246252586493558</v>
       </c>
       <c r="O9">
-        <v>3.260099947761663</v>
+        <v>2.926340920335191</v>
       </c>
       <c r="P9">
-        <v>2.679910436989408</v>
+        <v>3.690459963535031</v>
       </c>
       <c r="Q9">
-        <v>2.679910436989408</v>
+        <v>4.818339085077561</v>
       </c>
       <c r="R9">
-        <v>2.679910436989408</v>
+        <v>5.331683351557981</v>
       </c>
       <c r="S9">
-        <v>2.679910436989408</v>
+        <v>5.338999401506328</v>
       </c>
       <c r="T9">
-        <v>2.679910436989408</v>
+        <v>4.669810934539109</v>
       </c>
       <c r="U9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="V9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="W9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="X9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="Y9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="Z9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AA9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AB9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AC9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AD9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AE9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AF9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AG9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AH9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AI9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AJ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AK9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AL9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AM9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AN9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AO9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AP9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AQ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AR9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AS9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AT9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AU9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AV9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AW9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AX9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AY9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AZ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="BA9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>2.017105273483977</v>
-      </c>
-      <c r="J10">
-        <v>7.643153176955919</v>
-      </c>
-      <c r="K10">
-        <v>7.472658273721078</v>
-      </c>
-      <c r="L10">
-        <v>5.745831525574441</v>
-      </c>
-      <c r="M10">
-        <v>-0.8752093743685352</v>
-      </c>
-      <c r="N10">
-        <v>0.3081076735359067</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.6837276428259154</v>
+        <v>2.531927501892639</v>
       </c>
       <c r="P10">
-        <v>1.966616993222048</v>
+        <v>2.980998893591935</v>
       </c>
       <c r="Q10">
-        <v>1.901982000667957</v>
+        <v>4.241902819910548</v>
       </c>
       <c r="R10">
-        <v>1.901982000667957</v>
+        <v>4.636575318346536</v>
       </c>
       <c r="S10">
-        <v>1.901982000667957</v>
+        <v>4.067959312311897</v>
       </c>
       <c r="T10">
-        <v>1.901982000667957</v>
+        <v>3.254758369308375</v>
       </c>
       <c r="U10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="V10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="W10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="X10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="Y10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="Z10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AA10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AB10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AC10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AD10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AE10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AF10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AG10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AH10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AI10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AJ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AK10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AL10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AM10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AN10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AO10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AP10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AQ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AR10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AS10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AT10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AU10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AV10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AW10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AX10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AY10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AZ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="BA10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>7.972052343427372</v>
-      </c>
-      <c r="L11">
-        <v>6.401079724737424</v>
-      </c>
-      <c r="M11">
-        <v>1.998870338019265</v>
-      </c>
-      <c r="N11">
-        <v>2.847379875994704</v>
-      </c>
-      <c r="O11">
-        <v>4.891728508251214</v>
-      </c>
-      <c r="P11">
-        <v>3.901355411819707</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.736958261562484</v>
+        <v>4.128709279875675</v>
       </c>
       <c r="R11">
-        <v>3.985650080172465</v>
+        <v>4.787589287918981</v>
       </c>
       <c r="S11">
-        <v>4.096464207715544</v>
+        <v>4.36243732366437</v>
       </c>
       <c r="T11">
-        <v>4.096464207715544</v>
+        <v>2.76788332063731</v>
       </c>
       <c r="U11">
-        <v>4.096464207715544</v>
+        <v>4.613634856640769</v>
       </c>
       <c r="V11">
-        <v>4.096464207715544</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="W11">
-        <v>4.096464207715544</v>
+        <v>5.336448956671025</v>
       </c>
       <c r="X11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="Y11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="Z11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AA11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AB11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AC11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AD11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AE11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AF11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AG11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AH11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AI11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AJ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AK11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AL11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AM11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AN11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AO11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AP11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AQ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AR11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AS11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AT11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AU11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AV11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AW11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AX11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AY11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AZ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="BA11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>2.713546379382237</v>
-      </c>
-      <c r="N12">
-        <v>2.24625258649358</v>
-      </c>
-      <c r="O12">
-        <v>2.926340920335191</v>
-      </c>
-      <c r="P12">
-        <v>3.690459963535009</v>
-      </c>
-      <c r="Q12">
-        <v>4.818339085077583</v>
-      </c>
-      <c r="R12">
-        <v>5.331683351557981</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>5.338999401506328</v>
+        <v>4.275222332449569</v>
       </c>
       <c r="T12">
-        <v>4.669810934539087</v>
+        <v>3.551337174465652</v>
       </c>
       <c r="U12">
-        <v>4.722511558181774</v>
+        <v>4.246555741688218</v>
       </c>
       <c r="V12">
-        <v>4.722511558181774</v>
+        <v>4.659862065074982</v>
       </c>
       <c r="W12">
-        <v>4.722511558181774</v>
+        <v>6.155351106582851</v>
       </c>
       <c r="X12">
-        <v>4.722511558181774</v>
+        <v>3.898744563937395</v>
       </c>
       <c r="Y12">
-        <v>4.722511558181774</v>
+        <v>5.021833280292598</v>
       </c>
       <c r="Z12">
-        <v>4.722511558181774</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="AA12">
-        <v>4.722511558181774</v>
+        <v>4.848325243959639</v>
       </c>
       <c r="AB12">
-        <v>4.722511558181774</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="AC12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AD12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AE12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AF12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AG12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AH12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AI12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AJ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AK12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AL12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AM12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AN12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AO12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AP12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AQ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AR12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AS12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AT12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AU12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AV12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AW12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AX12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AY12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AZ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="BA12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.531927501892617</v>
-      </c>
-      <c r="P13">
-        <v>2.980998893591891</v>
-      </c>
-      <c r="Q13">
-        <v>4.241902819910548</v>
-      </c>
-      <c r="R13">
-        <v>4.636575318346536</v>
-      </c>
-      <c r="S13">
-        <v>4.067959312311897</v>
-      </c>
-      <c r="T13">
-        <v>3.254758369308375</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>3.349054996465806</v>
+        <v>4.42263347920151</v>
       </c>
       <c r="V13">
-        <v>3.349054996465806</v>
+        <v>4.263816009475496</v>
       </c>
       <c r="W13">
-        <v>3.349054996465806</v>
+        <v>5.081201994458495</v>
       </c>
       <c r="X13">
-        <v>3.349054996465806</v>
+        <v>3.529300656691237</v>
       </c>
       <c r="Y13">
-        <v>3.349054996465806</v>
+        <v>4.83330568333058</v>
       </c>
       <c r="Z13">
-        <v>3.349054996465806</v>
+        <v>4.636196713604379</v>
       </c>
       <c r="AA13">
-        <v>3.349054996465806</v>
+        <v>4.237941638782527</v>
       </c>
       <c r="AB13">
-        <v>3.349054996465806</v>
+        <v>3.841510956591465</v>
       </c>
       <c r="AC13">
-        <v>3.349054996465806</v>
+        <v>3.042742667481324</v>
       </c>
       <c r="AD13">
-        <v>3.349054996465806</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="AE13">
-        <v>3.349054996465806</v>
+        <v>2.362865648905155</v>
       </c>
       <c r="AF13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AG13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AH13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AI13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AJ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AK13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AL13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AM13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AN13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AO13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AP13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AQ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AR13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AS13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AT13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AU13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AV13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AW13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AX13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AY13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AZ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="BA13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>4.128709279875631</v>
-      </c>
-      <c r="R14">
-        <v>4.787589287919003</v>
-      </c>
-      <c r="S14">
-        <v>4.36243732366437</v>
-      </c>
-      <c r="T14">
-        <v>2.76788332063731</v>
-      </c>
-      <c r="U14">
-        <v>4.613634856640747</v>
-      </c>
-      <c r="V14">
-        <v>5.246209615995667</v>
-      </c>
-      <c r="W14">
-        <v>5.336448956671025</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>5.398773774976817</v>
+        <v>4.069985086878547</v>
       </c>
       <c r="Y14">
-        <v>5.398773774976817</v>
+        <v>4.946065685438961</v>
       </c>
       <c r="Z14">
-        <v>5.398773774976817</v>
+        <v>4.735206468494635</v>
       </c>
       <c r="AA14">
-        <v>5.398773774976817</v>
+        <v>4.932073907517265</v>
       </c>
       <c r="AB14">
-        <v>5.398773774976817</v>
+        <v>4.838485897465628</v>
       </c>
       <c r="AC14">
-        <v>5.398773774976817</v>
+        <v>3.228901920070748</v>
       </c>
       <c r="AD14">
-        <v>5.398773774976817</v>
+        <v>2.471557257221946</v>
       </c>
       <c r="AE14">
-        <v>5.398773774976817</v>
+        <v>2.059284312217757</v>
       </c>
       <c r="AF14">
-        <v>5.398773774976817</v>
+        <v>-0.8225206269755425</v>
       </c>
       <c r="AG14">
-        <v>5.398773774976817</v>
+        <v>-9.509392583043464</v>
       </c>
       <c r="AH14">
-        <v>5.398773774976817</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="AI14">
-        <v>5.398773774976817</v>
+        <v>-7.373714785196384</v>
       </c>
       <c r="AJ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AK14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AL14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AM14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AN14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AO14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AP14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AQ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AR14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AS14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AT14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AU14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AV14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AW14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AX14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AY14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AZ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="BA14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>4.275222332449591</v>
-      </c>
-      <c r="T15">
-        <v>3.551337174465652</v>
-      </c>
-      <c r="U15">
-        <v>4.246555741688218</v>
-      </c>
-      <c r="V15">
-        <v>4.659862065074982</v>
-      </c>
-      <c r="W15">
-        <v>6.155351106582874</v>
-      </c>
-      <c r="X15">
-        <v>3.898744563937395</v>
-      </c>
-      <c r="Y15">
-        <v>5.021833280292598</v>
-      </c>
-      <c r="Z15">
-        <v>4.86255966374296</v>
-      </c>
-      <c r="AA15">
-        <v>4.848325243959661</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>4.86255966374296</v>
+        <v>4.971464306638307</v>
       </c>
       <c r="AC15">
-        <v>4.827382248746037</v>
+        <v>3.859304997677815</v>
       </c>
       <c r="AD15">
-        <v>4.827382248746037</v>
+        <v>3.661528626669974</v>
       </c>
       <c r="AE15">
-        <v>4.827382248746037</v>
+        <v>2.845541644111549</v>
       </c>
       <c r="AF15">
-        <v>4.827382248746037</v>
+        <v>1.159653508089242</v>
       </c>
       <c r="AG15">
-        <v>4.827382248746037</v>
+        <v>-13.27335016738094</v>
       </c>
       <c r="AH15">
-        <v>4.827382248746037</v>
+        <v>-3.928463662434578</v>
       </c>
       <c r="AI15">
-        <v>4.827382248746037</v>
+        <v>0.2776641654053114</v>
       </c>
       <c r="AJ15">
-        <v>4.827382248746037</v>
+        <v>2.848657652839015</v>
       </c>
       <c r="AK15">
-        <v>4.827382248746037</v>
+        <v>4.308268478799282</v>
       </c>
       <c r="AL15">
-        <v>4.827382248746037</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="AM15">
-        <v>4.827382248746037</v>
+        <v>4.412562682863852</v>
       </c>
       <c r="AN15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AO15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AP15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AQ15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AR15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AS15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AT15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AU15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AV15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AW15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AX15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AY15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AZ15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="BA15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>4.422633479201488</v>
-      </c>
-      <c r="V16">
-        <v>4.263816009475496</v>
-      </c>
-      <c r="W16">
-        <v>5.081201994458495</v>
-      </c>
-      <c r="X16">
-        <v>3.529300656691237</v>
-      </c>
-      <c r="Y16">
-        <v>4.83330568333058</v>
-      </c>
-      <c r="Z16">
-        <v>4.636196713604357</v>
-      </c>
-      <c r="AA16">
-        <v>4.237941638782527</v>
-      </c>
-      <c r="AB16">
-        <v>3.841510956591465</v>
-      </c>
-      <c r="AC16">
-        <v>3.042742667481324</v>
-      </c>
-      <c r="AD16">
-        <v>2.764740011159428</v>
-      </c>
-      <c r="AE16">
-        <v>2.362865648905155</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>3.057436569079686</v>
+        <v>1.674576384397297</v>
       </c>
       <c r="AG16">
-        <v>3.057436569079686</v>
+        <v>-5.481722736979389</v>
       </c>
       <c r="AH16">
-        <v>3.057436569079686</v>
+        <v>-1.748054633281892</v>
       </c>
       <c r="AI16">
-        <v>3.057436569079686</v>
+        <v>-1.005130103122098</v>
       </c>
       <c r="AJ16">
-        <v>3.057436569079686</v>
+        <v>0.869978169785246</v>
       </c>
       <c r="AK16">
-        <v>3.057436569079686</v>
+        <v>2.613948320685866</v>
       </c>
       <c r="AL16">
-        <v>3.057436569079686</v>
+        <v>1.615192986662839</v>
       </c>
       <c r="AM16">
-        <v>3.057436569079686</v>
+        <v>8.215174201986319</v>
       </c>
       <c r="AN16">
-        <v>3.057436569079686</v>
+        <v>7.397941265640773</v>
       </c>
       <c r="AO16">
-        <v>3.057436569079686</v>
+        <v>7.536168948934541</v>
       </c>
       <c r="AP16">
-        <v>3.057436569079686</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="AQ16">
-        <v>3.057436569079686</v>
+        <v>7.584463210315628</v>
       </c>
       <c r="AR16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AS16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AT16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AU16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AV16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AW16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AX16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AY16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AZ16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="BA16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>4.069985086878525</v>
-      </c>
-      <c r="Y17">
-        <v>4.946065685438961</v>
-      </c>
-      <c r="Z17">
-        <v>4.735206468494657</v>
-      </c>
-      <c r="AA17">
-        <v>4.932073907517265</v>
-      </c>
-      <c r="AB17">
-        <v>4.83848589746565</v>
-      </c>
-      <c r="AC17">
-        <v>3.228901920070748</v>
-      </c>
-      <c r="AD17">
-        <v>2.471557257221946</v>
-      </c>
-      <c r="AE17">
-        <v>2.059284312217757</v>
-      </c>
-      <c r="AF17">
-        <v>-0.8225206269755425</v>
-      </c>
-      <c r="AG17">
-        <v>-9.509392583043452</v>
-      </c>
-      <c r="AH17">
-        <v>-7.260793671746435</v>
-      </c>
-      <c r="AI17">
-        <v>-7.373714785196372</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-7.240028578896951</v>
+        <v>-0.06009339947355974</v>
       </c>
       <c r="AK17">
-        <v>-7.240028578896951</v>
+        <v>0.6805972061374232</v>
       </c>
       <c r="AL17">
-        <v>-7.240028578896951</v>
+        <v>-0.09269483433730352</v>
       </c>
       <c r="AM17">
-        <v>-7.240028578896951</v>
+        <v>2.364846754700167</v>
       </c>
       <c r="AN17">
-        <v>-7.240028578896951</v>
+        <v>2.551560717335266</v>
       </c>
       <c r="AO17">
-        <v>-7.240028578896951</v>
+        <v>3.242110390729347</v>
       </c>
       <c r="AP17">
-        <v>-7.240028578896951</v>
+        <v>5.766948420758222</v>
       </c>
       <c r="AQ17">
-        <v>-7.240028578896951</v>
+        <v>5.214149886888819</v>
       </c>
       <c r="AR17">
-        <v>-7.240028578896951</v>
+        <v>1.134134753233695</v>
       </c>
       <c r="AS17">
-        <v>-7.240028578896951</v>
+        <v>-0.1750848605784672</v>
       </c>
       <c r="AT17">
-        <v>-7.240028578896951</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="AU17">
-        <v>-7.240028578896951</v>
+        <v>-1.329027666126548</v>
       </c>
       <c r="AV17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AW17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AX17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AY17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AZ17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="BA17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>4.971464306638329</v>
-      </c>
-      <c r="AC18">
-        <v>3.859304997677793</v>
-      </c>
-      <c r="AD18">
-        <v>3.661528626669996</v>
-      </c>
-      <c r="AE18">
-        <v>2.845541644111571</v>
-      </c>
-      <c r="AF18">
-        <v>1.159653508089242</v>
-      </c>
-      <c r="AG18">
-        <v>-13.27335016738094</v>
-      </c>
-      <c r="AH18">
-        <v>-3.928463662434578</v>
-      </c>
-      <c r="AI18">
-        <v>0.2776641654053114</v>
-      </c>
-      <c r="AJ18">
-        <v>2.848657652839015</v>
-      </c>
-      <c r="AK18">
-        <v>4.308268478799282</v>
-      </c>
-      <c r="AL18">
-        <v>4.097586525396268</v>
-      </c>
-      <c r="AM18">
-        <v>4.412562682863852</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>4.518318737295357</v>
+        <v>2.472057648734927</v>
       </c>
       <c r="AO18">
-        <v>4.518318737295357</v>
+        <v>2.87122766495167</v>
       </c>
       <c r="AP18">
-        <v>4.518318737295357</v>
+        <v>4.378000055373366</v>
       </c>
       <c r="AQ18">
-        <v>4.518318737295357</v>
+        <v>10.69860835370518</v>
       </c>
       <c r="AR18">
-        <v>4.518318737295357</v>
+        <v>5.807910951802375</v>
       </c>
       <c r="AS18">
-        <v>4.518318737295357</v>
+        <v>3.547807771059497</v>
       </c>
       <c r="AT18">
-        <v>4.518318737295357</v>
+        <v>-0.0390586059409781</v>
       </c>
       <c r="AU18">
-        <v>4.518318737295357</v>
+        <v>-3.067646799613699</v>
       </c>
       <c r="AV18">
-        <v>4.518318737295357</v>
+        <v>-2.447533648174649</v>
       </c>
       <c r="AW18">
-        <v>4.518318737295357</v>
+        <v>-2.520879465820702</v>
       </c>
       <c r="AX18">
-        <v>4.518318737295357</v>
+        <v>-1.735114423676209</v>
       </c>
       <c r="AY18">
-        <v>4.518318737295357</v>
+        <v>-1.578781203690705</v>
       </c>
       <c r="AZ18">
-        <v>4.518318737295357</v>
+        <v>-2.031769649484816</v>
       </c>
       <c r="BA18">
-        <v>4.518318737295357</v>
+        <v>-2.031769649484816</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>1.674576384397275</v>
-      </c>
-      <c r="AG19">
-        <v>-5.481722736979422</v>
-      </c>
-      <c r="AH19">
-        <v>-1.748054633281881</v>
-      </c>
-      <c r="AI19">
-        <v>-1.005130103122109</v>
-      </c>
-      <c r="AJ19">
-        <v>0.8699781697852682</v>
-      </c>
-      <c r="AK19">
-        <v>2.613948320685866</v>
-      </c>
-      <c r="AL19">
-        <v>1.615192986662839</v>
-      </c>
-      <c r="AM19">
-        <v>8.215174201986342</v>
-      </c>
-      <c r="AN19">
-        <v>7.397941265640773</v>
-      </c>
-      <c r="AO19">
-        <v>7.536168948934541</v>
-      </c>
-      <c r="AP19">
-        <v>7.824284864703746</v>
-      </c>
-      <c r="AQ19">
-        <v>7.584463210315606</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>8.368890311302657</v>
+        <v>6.454702807398194</v>
       </c>
       <c r="AS19">
-        <v>8.368890311302657</v>
+        <v>4.853094283145754</v>
       </c>
       <c r="AT19">
-        <v>8.368890311302657</v>
+        <v>2.278723886255629</v>
       </c>
       <c r="AU19">
-        <v>8.368890311302657</v>
+        <v>0.4897355149953819</v>
       </c>
       <c r="AV19">
-        <v>8.368890311302657</v>
+        <v>1.338948536686968</v>
       </c>
       <c r="AW19">
-        <v>8.368890311302657</v>
+        <v>-0.01136840354140078</v>
       </c>
       <c r="AX19">
-        <v>8.368890311302657</v>
+        <v>1.087576621789932</v>
       </c>
       <c r="AY19">
-        <v>8.368890311302657</v>
+        <v>1.760561567332619</v>
       </c>
       <c r="AZ19">
-        <v>8.368890311302657</v>
+        <v>1.038949519463617</v>
       </c>
       <c r="BA19">
-        <v>8.368890311302657</v>
+        <v>2.591610259448651</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.06009339947355974</v>
-      </c>
-      <c r="AK20">
-        <v>0.6805972061374455</v>
-      </c>
-      <c r="AL20">
-        <v>-0.09269483433728132</v>
-      </c>
-      <c r="AM20">
-        <v>2.364846754700189</v>
-      </c>
-      <c r="AN20">
-        <v>2.551560717335288</v>
-      </c>
-      <c r="AO20">
-        <v>3.242110390729325</v>
-      </c>
-      <c r="AP20">
-        <v>5.766948420758222</v>
-      </c>
-      <c r="AQ20">
-        <v>5.214149886888819</v>
-      </c>
-      <c r="AR20">
-        <v>1.134134753233695</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1750848605784672</v>
-      </c>
-      <c r="AT20">
-        <v>-1.24502235313334</v>
-      </c>
-      <c r="AU20">
-        <v>-1.329027666126559</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.5780765226327422</v>
+        <v>1.263613011417752</v>
       </c>
       <c r="AW20">
-        <v>-0.5780765226327422</v>
+        <v>-0.2854776650140889</v>
       </c>
       <c r="AX20">
-        <v>-0.5780765226327422</v>
+        <v>0.1781474575173858</v>
       </c>
       <c r="AY20">
-        <v>-0.5780765226327422</v>
+        <v>-0.3110100908356728</v>
       </c>
       <c r="AZ20">
-        <v>-0.5780765226327422</v>
+        <v>-1.220869074712128</v>
       </c>
       <c r="BA20">
-        <v>-0.5780765226327422</v>
+        <v>1.402134409956268</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>2.472057648734927</v>
-      </c>
-      <c r="AO21">
-        <v>2.87122766495167</v>
-      </c>
-      <c r="AP21">
-        <v>4.378000055373343</v>
-      </c>
-      <c r="AQ21">
-        <v>10.69860835370518</v>
-      </c>
-      <c r="AR21">
-        <v>5.807910951802375</v>
-      </c>
-      <c r="AS21">
-        <v>3.547807771059497</v>
-      </c>
-      <c r="AT21">
-        <v>-0.0390586059409781</v>
-      </c>
-      <c r="AU21">
-        <v>-3.06764679961371</v>
-      </c>
-      <c r="AV21">
-        <v>-2.44753364817466</v>
-      </c>
-      <c r="AW21">
-        <v>-2.520879465820713</v>
-      </c>
-      <c r="AX21">
-        <v>-1.735114423676209</v>
-      </c>
-      <c r="AY21">
-        <v>-1.578781203690705</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-2.031769649484816</v>
+        <v>-1.582886598789734</v>
       </c>
       <c r="BA21">
-        <v>-2.031769649484816</v>
+        <v>0.2343859841315021</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>6.454702807398216</v>
-      </c>
-      <c r="AS22">
-        <v>4.853094283145776</v>
-      </c>
-      <c r="AT22">
-        <v>2.278723886255629</v>
-      </c>
-      <c r="AU22">
-        <v>0.4897355149953597</v>
-      </c>
-      <c r="AV22">
-        <v>1.338948536686968</v>
-      </c>
-      <c r="AW22">
-        <v>-0.01136840354138968</v>
-      </c>
-      <c r="AX22">
-        <v>1.087576621789932</v>
-      </c>
-      <c r="AY22">
-        <v>1.760561567332619</v>
-      </c>
-      <c r="AZ22">
-        <v>1.038949519463639</v>
-      </c>
-      <c r="BA22">
-        <v>2.591610259448651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>1.26361301141773</v>
-      </c>
-      <c r="AW23">
-        <v>-0.2854776650141</v>
-      </c>
-      <c r="AX23">
-        <v>0.1781474575173858</v>
-      </c>
-      <c r="AY23">
-        <v>-0.3110100908356617</v>
-      </c>
-      <c r="AZ23">
-        <v>-1.22086907471215</v>
-      </c>
-      <c r="BA23">
-        <v>1.402134409956268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-1.582886598789712</v>
-      </c>
-      <c r="BA24">
-        <v>0.2343859841315243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-7.864097658617908</v>
       </c>
+      <c r="BB3">
+        <v>-7.864097658617908</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>5.172294413915957</v>
       </c>
+      <c r="BB4">
+        <v>5.172294413915957</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>9.075100657941459</v>
       </c>
+      <c r="BB5">
+        <v>9.075100657941459</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>2.679910436989386</v>
       </c>
+      <c r="BB6">
+        <v>2.679910436989386</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>1.901982000667957</v>
       </c>
+      <c r="BB7">
+        <v>1.901982000667957</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>4.096464207715544</v>
       </c>
+      <c r="BB8">
+        <v>4.096464207715544</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>4.722511558181752</v>
       </c>
+      <c r="BB9">
+        <v>4.722511558181752</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>3.349054996465806</v>
       </c>
+      <c r="BB10">
+        <v>3.349054996465806</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>5.398773774976817</v>
       </c>
+      <c r="BB11">
+        <v>5.398773774976817</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>4.827382248746059</v>
       </c>
+      <c r="BB12">
+        <v>4.827382248746059</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>3.057436569079708</v>
       </c>
+      <c r="BB13">
+        <v>3.057436569079708</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-7.240028578896962</v>
       </c>
+      <c r="BB14">
+        <v>-7.240028578896962</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>4.518318737295335</v>
       </c>
+      <c r="BB15">
+        <v>4.518318737295335</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>8.368890311302657</v>
       </c>
+      <c r="BB16">
+        <v>8.368890311302657</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.5780765226327311</v>
       </c>
+      <c r="BB17">
+        <v>-0.5780765226327311</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-2.031769649484816</v>
       </c>
+      <c r="BB18">
+        <v>-2.031769649484816</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>2.591610259448651</v>
       </c>
+      <c r="BB19">
+        <v>2.560577522109297</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>1.402134409956268</v>
       </c>
+      <c r="BB20">
+        <v>1.676143333484292</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>0.2343859841315021</v>
       </c>
+      <c r="BB21">
+        <v>0.6883350308492409</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
